--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020320-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020320-2.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3259,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3513,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3765,12 +3765,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3849,12 +3849,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4479,12 +4479,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6535,12 +6535,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7165,12 +7165,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8933,12 +8933,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9059,12 +9059,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9521,12 +9521,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11335,12 +11335,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11419,12 +11419,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11503,12 +11503,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11633,12 +11633,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11675,12 +11675,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11717,12 +11717,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12011,12 +12011,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12179,12 +12179,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12561,12 +12561,12 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12603,12 +12603,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12729,12 +12729,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13065,12 +13065,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14115,12 +14115,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14323,12 +14323,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16129,12 +16129,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16297,12 +16297,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17053,12 +17053,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17603,12 +17603,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17687,12 +17687,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18661,12 +18661,12 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18997,12 +18997,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19123,12 +19123,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20303,12 +20303,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20387,12 +20387,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21273,12 +21273,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21483,12 +21483,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21525,12 +21525,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21903,12 +21903,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22113,12 +22113,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22281,12 +22281,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22323,12 +22323,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22449,12 +22449,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22491,12 +22491,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22659,12 +22659,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22827,12 +22827,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22911,12 +22911,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22953,12 +22953,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
